--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_first.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1554318005364178</v>
+        <v>0.176352123585264</v>
       </c>
       <c r="C2">
-        <v>1.48058180653347</v>
+        <v>1.438399748344361</v>
       </c>
       <c r="D2">
-        <v>7.275721328248791</v>
+        <v>6.946103063756487</v>
       </c>
       <c r="E2">
-        <v>2.69735450548288</v>
+        <v>2.635546065572842</v>
       </c>
       <c r="F2">
-        <v>2.762828886567801</v>
+        <v>2.694578472020555</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_first.xlsx
@@ -423,19 +423,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.176352123585264</v>
+        <v>0.1586067701024982</v>
       </c>
       <c r="C2">
-        <v>1.438399748344361</v>
+        <v>1.518426349632036</v>
       </c>
       <c r="D2">
-        <v>6.946103063756487</v>
+        <v>7.036628225930749</v>
       </c>
       <c r="E2">
-        <v>2.635546065572842</v>
+        <v>2.652664363603272</v>
       </c>
       <c r="F2">
-        <v>2.694578472020555</v>
+        <v>2.713308999050573</v>
       </c>
       <c r="G2">
         <v>21</v>

--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_first.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_first.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1586067701024982</v>
+        <v>0.1664724431887483</v>
       </c>
       <c r="C2">
-        <v>1.518426349632036</v>
+        <v>1.464482041830579</v>
       </c>
       <c r="D2">
-        <v>7.036628225930749</v>
+        <v>6.721781159715255</v>
       </c>
       <c r="E2">
-        <v>2.652664363603272</v>
+        <v>2.592639805240068</v>
       </c>
       <c r="F2">
-        <v>2.713308999050573</v>
+        <v>2.648175453457832</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
